--- a/va_facility_data_2025-02-20/John D. Dingell Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''John%20D.%20Dingell%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/John D. Dingell Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''John%20D.%20Dingell%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbd3280f46d96469db3eafadfd23a23b8"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rb2653ba6fd39457d92d22c32d6a29550"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R877c1abffd6a47199615883028e00eab"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rdb6048cb9c5744919e5e5609f5984c41"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcd34df898049489c9c8f8183183cb81c"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rcd2be05a6b4f45e3903967683aa6d9be"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re6a27929f6ce4d14bba7b24e9d30fc40"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R29948b7ca5674c82adc9b8fc3bb9cc91"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R75f6f1084b714df9855bbac53ec8e699"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rade07969a58b4b16a16d3fe180c28a30"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R362b46927de84556846e9dd0d239b2d3"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7160ae54998048bb975e1ced644a6cd6"/>
   </x:sheets>
 </x:workbook>
 </file>
